--- a/app/countries/management/commands/data/economic_freedom_index.xlsx
+++ b/app/countries/management/commands/data/economic_freedom_index.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>country_iso_code</t>
+          <t>country__iso_code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>country__name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -8530,7 +8530,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D386" t="n">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D391" t="n">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -8740,7 +8740,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D396" t="n">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D401" t="n">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Bahamas, The</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D479" t="n">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D481" t="n">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D482" t="n">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D483" t="n">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D485" t="n">
@@ -10630,7 +10630,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D486" t="n">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D488" t="n">
@@ -10693,7 +10693,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -10714,7 +10714,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D491" t="n">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D493" t="n">
@@ -10798,7 +10798,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D494" t="n">
@@ -10819,7 +10819,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D495" t="n">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D496" t="n">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -10882,7 +10882,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D498" t="n">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D499" t="n">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D501" t="n">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bolivia, Plurinational State of</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -15586,7 +15586,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D722" t="n">
@@ -15607,7 +15607,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D723" t="n">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D724" t="n">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D725" t="n">
@@ -15670,7 +15670,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D726" t="n">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D727" t="n">
@@ -15712,7 +15712,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D728" t="n">
@@ -15733,7 +15733,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D729" t="n">
@@ -15754,7 +15754,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D730" t="n">
@@ -15775,7 +15775,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D731" t="n">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D732" t="n">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D733" t="n">
@@ -15838,7 +15838,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D734" t="n">
@@ -15859,7 +15859,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D735" t="n">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D736" t="n">
@@ -15901,7 +15901,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D737" t="n">
@@ -15922,7 +15922,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D738" t="n">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D739" t="n">
@@ -15964,7 +15964,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D740" t="n">
@@ -15985,7 +15985,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D741" t="n">
@@ -16006,7 +16006,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D742" t="n">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D743" t="n">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D744" t="n">
@@ -16069,7 +16069,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D745" t="n">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D746" t="n">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="D747" t="n">
@@ -16678,7 +16678,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D774" t="n">
@@ -16699,7 +16699,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D775" t="n">
@@ -16720,7 +16720,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D776" t="n">
@@ -16741,7 +16741,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D777" t="n">
@@ -16762,7 +16762,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D778" t="n">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D779" t="n">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D780" t="n">
@@ -16825,7 +16825,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D781" t="n">
@@ -16846,7 +16846,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D782" t="n">
@@ -16867,7 +16867,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D783" t="n">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D784" t="n">
@@ -16909,7 +16909,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D785" t="n">
@@ -16930,7 +16930,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D786" t="n">
@@ -16951,7 +16951,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D787" t="n">
@@ -16972,7 +16972,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D788" t="n">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D789" t="n">
@@ -17014,7 +17014,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D790" t="n">
@@ -17035,7 +17035,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>Congo, Dem. Rep.</t>
+          <t>Congo, The Democratic Republic of the</t>
         </is>
       </c>
       <c r="D791" t="n">
@@ -17056,7 +17056,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D792" t="n">
@@ -17077,7 +17077,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D793" t="n">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D794" t="n">
@@ -17119,7 +17119,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D795" t="n">
@@ -17140,7 +17140,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D796" t="n">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D797" t="n">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D798" t="n">
@@ -17203,7 +17203,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D799" t="n">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D800" t="n">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D801" t="n">
@@ -17266,7 +17266,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D802" t="n">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D803" t="n">
@@ -17308,7 +17308,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D804" t="n">
@@ -17329,7 +17329,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D805" t="n">
@@ -17350,7 +17350,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D806" t="n">
@@ -17371,7 +17371,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D807" t="n">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D808" t="n">
@@ -17413,7 +17413,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D809" t="n">
@@ -17434,7 +17434,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D810" t="n">
@@ -17455,7 +17455,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D811" t="n">
@@ -17476,7 +17476,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D812" t="n">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D813" t="n">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D814" t="n">
@@ -17539,7 +17539,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D815" t="n">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>Congo, Rep.</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D816" t="n">
@@ -20521,7 +20521,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D957" t="n">
@@ -20542,7 +20542,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D958" t="n">
@@ -20563,7 +20563,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D959" t="n">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D960" t="n">
@@ -20605,7 +20605,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D961" t="n">
@@ -20626,7 +20626,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D962" t="n">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D963" t="n">
@@ -20668,7 +20668,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D964" t="n">
@@ -20689,7 +20689,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D965" t="n">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D966" t="n">
@@ -20731,7 +20731,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D967" t="n">
@@ -20752,7 +20752,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D968" t="n">
@@ -20773,7 +20773,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D969" t="n">
@@ -20794,7 +20794,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D970" t="n">
@@ -20815,7 +20815,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D971" t="n">
@@ -20836,7 +20836,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D972" t="n">
@@ -20857,7 +20857,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D973" t="n">
@@ -20878,7 +20878,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D974" t="n">
@@ -20899,7 +20899,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D975" t="n">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D976" t="n">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D977" t="n">
@@ -20962,7 +20962,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D978" t="n">
@@ -20983,7 +20983,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D979" t="n">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D980" t="n">
@@ -21025,7 +21025,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D981" t="n">
@@ -21046,7 +21046,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D982" t="n">
@@ -24532,7 +24532,7 @@
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1148" t="n">
@@ -24553,7 +24553,7 @@
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1149" t="n">
@@ -24574,7 +24574,7 @@
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1150" t="n">
@@ -24595,7 +24595,7 @@
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1151" t="n">
@@ -24616,7 +24616,7 @@
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1152" t="n">
@@ -24637,7 +24637,7 @@
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1153" t="n">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1154" t="n">
@@ -24679,7 +24679,7 @@
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1155" t="n">
@@ -24700,7 +24700,7 @@
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1156" t="n">
@@ -24721,7 +24721,7 @@
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1157" t="n">
@@ -24742,7 +24742,7 @@
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1158" t="n">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1159" t="n">
@@ -24784,7 +24784,7 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1160" t="n">
@@ -24805,7 +24805,7 @@
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1161" t="n">
@@ -24826,7 +24826,7 @@
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1162" t="n">
@@ -24847,7 +24847,7 @@
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1163" t="n">
@@ -24868,7 +24868,7 @@
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1164" t="n">
@@ -24889,7 +24889,7 @@
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1165" t="n">
@@ -24910,7 +24910,7 @@
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1166" t="n">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1167" t="n">
@@ -24952,7 +24952,7 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1168" t="n">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1169" t="n">
@@ -24994,7 +24994,7 @@
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1170" t="n">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1171" t="n">
@@ -25036,7 +25036,7 @@
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1172" t="n">
@@ -25057,7 +25057,7 @@
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Egypt, Arab Rep.</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D1173" t="n">
@@ -28039,7 +28039,7 @@
       </c>
       <c r="C1315" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1315" t="n">
@@ -28060,7 +28060,7 @@
       </c>
       <c r="C1316" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1316" t="n">
@@ -28081,7 +28081,7 @@
       </c>
       <c r="C1317" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1317" t="n">
@@ -28102,7 +28102,7 @@
       </c>
       <c r="C1318" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1318" t="n">
@@ -28123,7 +28123,7 @@
       </c>
       <c r="C1319" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1319" t="n">
@@ -28144,7 +28144,7 @@
       </c>
       <c r="C1320" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1320" t="n">
@@ -28165,7 +28165,7 @@
       </c>
       <c r="C1321" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1321" t="n">
@@ -28186,7 +28186,7 @@
       </c>
       <c r="C1322" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1322" t="n">
@@ -28207,7 +28207,7 @@
       </c>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1323" t="n">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="C1324" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1324" t="n">
@@ -28249,7 +28249,7 @@
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1325" t="n">
@@ -28270,7 +28270,7 @@
       </c>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D1326" t="n">
@@ -31000,7 +31000,7 @@
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1456" t="n">
@@ -31021,7 +31021,7 @@
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1457" t="n">
@@ -31042,7 +31042,7 @@
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1458" t="n">
@@ -31063,7 +31063,7 @@
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1459" t="n">
@@ -31084,7 +31084,7 @@
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1460" t="n">
@@ -31105,7 +31105,7 @@
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1461" t="n">
@@ -31126,7 +31126,7 @@
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1462" t="n">
@@ -31147,7 +31147,7 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1463" t="n">
@@ -31168,7 +31168,7 @@
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1464" t="n">
@@ -31189,7 +31189,7 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1465" t="n">
@@ -31210,7 +31210,7 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1466" t="n">
@@ -31231,7 +31231,7 @@
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1467" t="n">
@@ -31252,7 +31252,7 @@
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1468" t="n">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1469" t="n">
@@ -31294,7 +31294,7 @@
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1470" t="n">
@@ -31315,7 +31315,7 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1471" t="n">
@@ -31336,7 +31336,7 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1472" t="n">
@@ -31357,7 +31357,7 @@
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1473" t="n">
@@ -31378,7 +31378,7 @@
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1474" t="n">
@@ -31399,7 +31399,7 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1475" t="n">
@@ -31420,7 +31420,7 @@
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1476" t="n">
@@ -31441,7 +31441,7 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1477" t="n">
@@ -31462,7 +31462,7 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Gambia, The</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="D1478" t="n">
@@ -37846,7 +37846,7 @@
       </c>
       <c r="C1782" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1782" t="n">
@@ -37867,7 +37867,7 @@
       </c>
       <c r="C1783" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1783" t="n">
@@ -37888,7 +37888,7 @@
       </c>
       <c r="C1784" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1784" t="n">
@@ -37909,7 +37909,7 @@
       </c>
       <c r="C1785" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1785" t="n">
@@ -37930,7 +37930,7 @@
       </c>
       <c r="C1786" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1786" t="n">
@@ -37951,7 +37951,7 @@
       </c>
       <c r="C1787" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1787" t="n">
@@ -37972,7 +37972,7 @@
       </c>
       <c r="C1788" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1788" t="n">
@@ -37993,7 +37993,7 @@
       </c>
       <c r="C1789" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1789" t="n">
@@ -38014,7 +38014,7 @@
       </c>
       <c r="C1790" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1790" t="n">
@@ -38035,7 +38035,7 @@
       </c>
       <c r="C1791" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1791" t="n">
@@ -38056,7 +38056,7 @@
       </c>
       <c r="C1792" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1792" t="n">
@@ -38077,7 +38077,7 @@
       </c>
       <c r="C1793" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1793" t="n">
@@ -38098,7 +38098,7 @@
       </c>
       <c r="C1794" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1794" t="n">
@@ -38119,7 +38119,7 @@
       </c>
       <c r="C1795" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1795" t="n">
@@ -38140,7 +38140,7 @@
       </c>
       <c r="C1796" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1796" t="n">
@@ -38161,7 +38161,7 @@
       </c>
       <c r="C1797" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1797" t="n">
@@ -38182,7 +38182,7 @@
       </c>
       <c r="C1798" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1798" t="n">
@@ -38203,7 +38203,7 @@
       </c>
       <c r="C1799" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1799" t="n">
@@ -38224,7 +38224,7 @@
       </c>
       <c r="C1800" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1800" t="n">
@@ -38245,7 +38245,7 @@
       </c>
       <c r="C1801" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1801" t="n">
@@ -38266,7 +38266,7 @@
       </c>
       <c r="C1802" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1802" t="n">
@@ -38287,7 +38287,7 @@
       </c>
       <c r="C1803" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1803" t="n">
@@ -38308,7 +38308,7 @@
       </c>
       <c r="C1804" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1804" t="n">
@@ -38329,7 +38329,7 @@
       </c>
       <c r="C1805" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1805" t="n">
@@ -38350,7 +38350,7 @@
       </c>
       <c r="C1806" t="inlineStr">
         <is>
-          <t>Iran, Islamic Rep.</t>
+          <t>Iran, Islamic Republic of</t>
         </is>
       </c>
       <c r="D1806" t="n">
@@ -42781,7 +42781,7 @@
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2017" t="n">
@@ -42802,7 +42802,7 @@
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2018" t="n">
@@ -42823,7 +42823,7 @@
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2019" t="n">
@@ -42844,7 +42844,7 @@
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2020" t="n">
@@ -42865,7 +42865,7 @@
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2021" t="n">
@@ -42886,7 +42886,7 @@
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2022" t="n">
@@ -42907,7 +42907,7 @@
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2023" t="n">
@@ -42928,7 +42928,7 @@
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2024" t="n">
@@ -42949,7 +42949,7 @@
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2025" t="n">
@@ -42970,7 +42970,7 @@
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2026" t="n">
@@ -42991,7 +42991,7 @@
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2027" t="n">
@@ -43012,7 +43012,7 @@
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2028" t="n">
@@ -43033,7 +43033,7 @@
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2029" t="n">
@@ -43054,7 +43054,7 @@
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2030" t="n">
@@ -43075,7 +43075,7 @@
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2031" t="n">
@@ -43096,7 +43096,7 @@
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2032" t="n">
@@ -43117,7 +43117,7 @@
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2033" t="n">
@@ -43138,7 +43138,7 @@
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2034" t="n">
@@ -43159,7 +43159,7 @@
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2035" t="n">
@@ -43180,7 +43180,7 @@
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2036" t="n">
@@ -43201,7 +43201,7 @@
       </c>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2037" t="n">
@@ -43222,7 +43222,7 @@
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2038" t="n">
@@ -43243,7 +43243,7 @@
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D2039" t="n">
@@ -44020,7 +44020,7 @@
       </c>
       <c r="C2076" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2076" t="n">
@@ -44041,7 +44041,7 @@
       </c>
       <c r="C2077" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2077" t="n">
@@ -44062,7 +44062,7 @@
       </c>
       <c r="C2078" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2078" t="n">
@@ -44083,7 +44083,7 @@
       </c>
       <c r="C2079" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2079" t="n">
@@ -44104,7 +44104,7 @@
       </c>
       <c r="C2080" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2080" t="n">
@@ -44125,7 +44125,7 @@
       </c>
       <c r="C2081" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2081" t="n">
@@ -44146,7 +44146,7 @@
       </c>
       <c r="C2082" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2082" t="n">
@@ -44167,7 +44167,7 @@
       </c>
       <c r="C2083" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2083" t="n">
@@ -44188,7 +44188,7 @@
       </c>
       <c r="C2084" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2084" t="n">
@@ -44209,7 +44209,7 @@
       </c>
       <c r="C2085" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2085" t="n">
@@ -44230,7 +44230,7 @@
       </c>
       <c r="C2086" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2086" t="n">
@@ -44251,7 +44251,7 @@
       </c>
       <c r="C2087" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2087" t="n">
@@ -44272,7 +44272,7 @@
       </c>
       <c r="C2088" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2088" t="n">
@@ -44293,7 +44293,7 @@
       </c>
       <c r="C2089" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2089" t="n">
@@ -44314,7 +44314,7 @@
       </c>
       <c r="C2090" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2090" t="n">
@@ -44335,7 +44335,7 @@
       </c>
       <c r="C2091" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2091" t="n">
@@ -44356,7 +44356,7 @@
       </c>
       <c r="C2092" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2092" t="n">
@@ -44377,7 +44377,7 @@
       </c>
       <c r="C2093" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2093" t="n">
@@ -44398,7 +44398,7 @@
       </c>
       <c r="C2094" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2094" t="n">
@@ -44419,7 +44419,7 @@
       </c>
       <c r="C2095" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2095" t="n">
@@ -44440,7 +44440,7 @@
       </c>
       <c r="C2096" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2096" t="n">
@@ -44461,7 +44461,7 @@
       </c>
       <c r="C2097" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2097" t="n">
@@ -44482,7 +44482,7 @@
       </c>
       <c r="C2098" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2098" t="n">
@@ -44503,7 +44503,7 @@
       </c>
       <c r="C2099" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2099" t="n">
@@ -44524,7 +44524,7 @@
       </c>
       <c r="C2100" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2100" t="n">
@@ -44545,7 +44545,7 @@
       </c>
       <c r="C2101" t="inlineStr">
         <is>
-          <t>Korea, Rep.</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D2101" t="n">
@@ -45091,7 +45091,7 @@
       </c>
       <c r="C2127" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2127" t="n">
@@ -45112,7 +45112,7 @@
       </c>
       <c r="C2128" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2128" t="n">
@@ -45133,7 +45133,7 @@
       </c>
       <c r="C2129" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2129" t="n">
@@ -45154,7 +45154,7 @@
       </c>
       <c r="C2130" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2130" t="n">
@@ -45175,7 +45175,7 @@
       </c>
       <c r="C2131" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2131" t="n">
@@ -45196,7 +45196,7 @@
       </c>
       <c r="C2132" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2132" t="n">
@@ -45217,7 +45217,7 @@
       </c>
       <c r="C2133" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2133" t="n">
@@ -45238,7 +45238,7 @@
       </c>
       <c r="C2134" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2134" t="n">
@@ -45259,7 +45259,7 @@
       </c>
       <c r="C2135" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2135" t="n">
@@ -45280,7 +45280,7 @@
       </c>
       <c r="C2136" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2136" t="n">
@@ -45301,7 +45301,7 @@
       </c>
       <c r="C2137" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2137" t="n">
@@ -45322,7 +45322,7 @@
       </c>
       <c r="C2138" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2138" t="n">
@@ -45343,7 +45343,7 @@
       </c>
       <c r="C2139" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2139" t="n">
@@ -45364,7 +45364,7 @@
       </c>
       <c r="C2140" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2140" t="n">
@@ -45385,7 +45385,7 @@
       </c>
       <c r="C2141" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2141" t="n">
@@ -45406,7 +45406,7 @@
       </c>
       <c r="C2142" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2142" t="n">
@@ -45427,7 +45427,7 @@
       </c>
       <c r="C2143" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2143" t="n">
@@ -45448,7 +45448,7 @@
       </c>
       <c r="C2144" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2144" t="n">
@@ -45469,7 +45469,7 @@
       </c>
       <c r="C2145" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2145" t="n">
@@ -45490,7 +45490,7 @@
       </c>
       <c r="C2146" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2146" t="n">
@@ -45511,7 +45511,7 @@
       </c>
       <c r="C2147" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2147" t="n">
@@ -45532,7 +45532,7 @@
       </c>
       <c r="C2148" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2148" t="n">
@@ -45553,7 +45553,7 @@
       </c>
       <c r="C2149" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2149" t="n">
@@ -45574,7 +45574,7 @@
       </c>
       <c r="C2150" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2150" t="n">
@@ -45595,7 +45595,7 @@
       </c>
       <c r="C2151" t="inlineStr">
         <is>
-          <t>Lao PDR</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="D2151" t="n">
@@ -46750,7 +46750,7 @@
       </c>
       <c r="C2206" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2206" t="n">
@@ -46771,7 +46771,7 @@
       </c>
       <c r="C2207" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2207" t="n">
@@ -46792,7 +46792,7 @@
       </c>
       <c r="C2208" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2208" t="n">
@@ -46813,7 +46813,7 @@
       </c>
       <c r="C2209" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2209" t="n">
@@ -46834,7 +46834,7 @@
       </c>
       <c r="C2210" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2210" t="n">
@@ -46855,7 +46855,7 @@
       </c>
       <c r="C2211" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2211" t="n">
@@ -46876,7 +46876,7 @@
       </c>
       <c r="C2212" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2212" t="n">
@@ -46897,7 +46897,7 @@
       </c>
       <c r="C2213" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2213" t="n">
@@ -46918,7 +46918,7 @@
       </c>
       <c r="C2214" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2214" t="n">
@@ -46939,7 +46939,7 @@
       </c>
       <c r="C2215" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2215" t="n">
@@ -46960,7 +46960,7 @@
       </c>
       <c r="C2216" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2216" t="n">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="C2217" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D2217" t="n">
@@ -50194,7 +50194,7 @@
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2370" t="n">
@@ -50215,7 +50215,7 @@
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2371" t="n">
@@ -50236,7 +50236,7 @@
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2372" t="n">
@@ -50257,7 +50257,7 @@
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2373" t="n">
@@ -50278,7 +50278,7 @@
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2374" t="n">
@@ -50299,7 +50299,7 @@
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2375" t="n">
@@ -50320,7 +50320,7 @@
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2376" t="n">
@@ -50341,7 +50341,7 @@
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2377" t="n">
@@ -50362,7 +50362,7 @@
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2378" t="n">
@@ -50383,7 +50383,7 @@
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2379" t="n">
@@ -50404,7 +50404,7 @@
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2380" t="n">
@@ -50425,7 +50425,7 @@
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2381" t="n">
@@ -50446,7 +50446,7 @@
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2382" t="n">
@@ -50467,7 +50467,7 @@
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2383" t="n">
@@ -50488,7 +50488,7 @@
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2384" t="n">
@@ -50509,7 +50509,7 @@
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2385" t="n">
@@ -50530,7 +50530,7 @@
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2386" t="n">
@@ -50551,7 +50551,7 @@
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2387" t="n">
@@ -50572,7 +50572,7 @@
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2388" t="n">
@@ -50593,7 +50593,7 @@
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2389" t="n">
@@ -50614,7 +50614,7 @@
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2390" t="n">
@@ -50635,7 +50635,7 @@
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2391" t="n">
@@ -50656,7 +50656,7 @@
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2392" t="n">
@@ -50677,7 +50677,7 @@
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2393" t="n">
@@ -50698,7 +50698,7 @@
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2394" t="n">
@@ -50719,7 +50719,7 @@
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Moldova, Republic of</t>
         </is>
       </c>
       <c r="D2395" t="n">
@@ -52084,7 +52084,7 @@
       </c>
       <c r="C2460" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2460" t="n">
@@ -52105,7 +52105,7 @@
       </c>
       <c r="C2461" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2461" t="n">
@@ -52126,7 +52126,7 @@
       </c>
       <c r="C2462" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2462" t="n">
@@ -52147,7 +52147,7 @@
       </c>
       <c r="C2463" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2463" t="n">
@@ -52168,7 +52168,7 @@
       </c>
       <c r="C2464" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2464" t="n">
@@ -52189,7 +52189,7 @@
       </c>
       <c r="C2465" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2465" t="n">
@@ -52210,7 +52210,7 @@
       </c>
       <c r="C2466" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2466" t="n">
@@ -52231,7 +52231,7 @@
       </c>
       <c r="C2467" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2467" t="n">
@@ -52252,7 +52252,7 @@
       </c>
       <c r="C2468" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2468" t="n">
@@ -52273,7 +52273,7 @@
       </c>
       <c r="C2469" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2469" t="n">
@@ -52294,7 +52294,7 @@
       </c>
       <c r="C2470" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2470" t="n">
@@ -52315,7 +52315,7 @@
       </c>
       <c r="C2471" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2471" t="n">
@@ -52336,7 +52336,7 @@
       </c>
       <c r="C2472" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2472" t="n">
@@ -52357,7 +52357,7 @@
       </c>
       <c r="C2473" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2473" t="n">
@@ -52378,7 +52378,7 @@
       </c>
       <c r="C2474" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2474" t="n">
@@ -52399,7 +52399,7 @@
       </c>
       <c r="C2475" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2475" t="n">
@@ -52420,7 +52420,7 @@
       </c>
       <c r="C2476" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2476" t="n">
@@ -52441,7 +52441,7 @@
       </c>
       <c r="C2477" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2477" t="n">
@@ -52462,7 +52462,7 @@
       </c>
       <c r="C2478" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="D2478" t="n">
@@ -65377,7 +65377,7 @@
       </c>
       <c r="C3093" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3093" t="n">
@@ -65398,7 +65398,7 @@
       </c>
       <c r="C3094" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3094" t="n">
@@ -65419,7 +65419,7 @@
       </c>
       <c r="C3095" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3095" t="n">
@@ -65440,7 +65440,7 @@
       </c>
       <c r="C3096" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3096" t="n">
@@ -65461,7 +65461,7 @@
       </c>
       <c r="C3097" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3097" t="n">
@@ -65482,7 +65482,7 @@
       </c>
       <c r="C3098" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3098" t="n">
@@ -65503,7 +65503,7 @@
       </c>
       <c r="C3099" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3099" t="n">
@@ -65524,7 +65524,7 @@
       </c>
       <c r="C3100" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3100" t="n">
@@ -65545,7 +65545,7 @@
       </c>
       <c r="C3101" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3101" t="n">
@@ -65566,7 +65566,7 @@
       </c>
       <c r="C3102" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3102" t="n">
@@ -65587,7 +65587,7 @@
       </c>
       <c r="C3103" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3103" t="n">
@@ -65608,7 +65608,7 @@
       </c>
       <c r="C3104" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3104" t="n">
@@ -65629,7 +65629,7 @@
       </c>
       <c r="C3105" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3105" t="n">
@@ -65650,7 +65650,7 @@
       </c>
       <c r="C3106" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3106" t="n">
@@ -65671,7 +65671,7 @@
       </c>
       <c r="C3107" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3107" t="n">
@@ -65692,7 +65692,7 @@
       </c>
       <c r="C3108" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3108" t="n">
@@ -65713,7 +65713,7 @@
       </c>
       <c r="C3109" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3109" t="n">
@@ -65734,7 +65734,7 @@
       </c>
       <c r="C3110" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3110" t="n">
@@ -65755,7 +65755,7 @@
       </c>
       <c r="C3111" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3111" t="n">
@@ -65776,7 +65776,7 @@
       </c>
       <c r="C3112" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3112" t="n">
@@ -65797,7 +65797,7 @@
       </c>
       <c r="C3113" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3113" t="n">
@@ -65818,7 +65818,7 @@
       </c>
       <c r="C3114" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3114" t="n">
@@ -65839,7 +65839,7 @@
       </c>
       <c r="C3115" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3115" t="n">
@@ -65860,7 +65860,7 @@
       </c>
       <c r="C3116" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3116" t="n">
@@ -65881,7 +65881,7 @@
       </c>
       <c r="C3117" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3117" t="n">
@@ -65902,7 +65902,7 @@
       </c>
       <c r="C3118" t="inlineStr">
         <is>
-          <t>Korea, Dem. People’s Rep.</t>
+          <t>Korea, Democratic People's Republic of</t>
         </is>
       </c>
       <c r="D3118" t="n">
@@ -73084,7 +73084,7 @@
       </c>
       <c r="C3460" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3460" t="n">
@@ -73105,7 +73105,7 @@
       </c>
       <c r="C3461" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3461" t="n">
@@ -73126,7 +73126,7 @@
       </c>
       <c r="C3462" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3462" t="n">
@@ -73147,7 +73147,7 @@
       </c>
       <c r="C3463" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3463" t="n">
@@ -73168,7 +73168,7 @@
       </c>
       <c r="C3464" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3464" t="n">
@@ -73189,7 +73189,7 @@
       </c>
       <c r="C3465" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3465" t="n">
@@ -73210,7 +73210,7 @@
       </c>
       <c r="C3466" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3466" t="n">
@@ -73231,7 +73231,7 @@
       </c>
       <c r="C3467" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3467" t="n">
@@ -73252,7 +73252,7 @@
       </c>
       <c r="C3468" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3468" t="n">
@@ -73273,7 +73273,7 @@
       </c>
       <c r="C3469" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3469" t="n">
@@ -73294,7 +73294,7 @@
       </c>
       <c r="C3470" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3470" t="n">
@@ -73315,7 +73315,7 @@
       </c>
       <c r="C3471" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3471" t="n">
@@ -73336,7 +73336,7 @@
       </c>
       <c r="C3472" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3472" t="n">
@@ -73357,7 +73357,7 @@
       </c>
       <c r="C3473" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3473" t="n">
@@ -73378,7 +73378,7 @@
       </c>
       <c r="C3474" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3474" t="n">
@@ -73399,7 +73399,7 @@
       </c>
       <c r="C3475" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3475" t="n">
@@ -73420,7 +73420,7 @@
       </c>
       <c r="C3476" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3476" t="n">
@@ -73441,7 +73441,7 @@
       </c>
       <c r="C3477" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3477" t="n">
@@ -73462,7 +73462,7 @@
       </c>
       <c r="C3478" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3478" t="n">
@@ -73483,7 +73483,7 @@
       </c>
       <c r="C3479" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3479" t="n">
@@ -73504,7 +73504,7 @@
       </c>
       <c r="C3480" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3480" t="n">
@@ -73525,7 +73525,7 @@
       </c>
       <c r="C3481" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3481" t="n">
@@ -73546,7 +73546,7 @@
       </c>
       <c r="C3482" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3482" t="n">
@@ -73567,7 +73567,7 @@
       </c>
       <c r="C3483" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3483" t="n">
@@ -73588,7 +73588,7 @@
       </c>
       <c r="C3484" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3484" t="n">
@@ -73609,7 +73609,7 @@
       </c>
       <c r="C3485" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D3485" t="n">
@@ -79909,7 +79909,7 @@
       </c>
       <c r="C3785" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3785" t="n">
@@ -79930,7 +79930,7 @@
       </c>
       <c r="C3786" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3786" t="n">
@@ -79951,7 +79951,7 @@
       </c>
       <c r="C3787" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3787" t="n">
@@ -79972,7 +79972,7 @@
       </c>
       <c r="C3788" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3788" t="n">
@@ -79993,7 +79993,7 @@
       </c>
       <c r="C3789" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3789" t="n">
@@ -80014,7 +80014,7 @@
       </c>
       <c r="C3790" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3790" t="n">
@@ -80035,7 +80035,7 @@
       </c>
       <c r="C3791" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3791" t="n">
@@ -80056,7 +80056,7 @@
       </c>
       <c r="C3792" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3792" t="n">
@@ -80077,7 +80077,7 @@
       </c>
       <c r="C3793" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3793" t="n">
@@ -80098,7 +80098,7 @@
       </c>
       <c r="C3794" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3794" t="n">
@@ -80119,7 +80119,7 @@
       </c>
       <c r="C3795" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3795" t="n">
@@ -80140,7 +80140,7 @@
       </c>
       <c r="C3796" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3796" t="n">
@@ -80161,7 +80161,7 @@
       </c>
       <c r="C3797" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3797" t="n">
@@ -80182,7 +80182,7 @@
       </c>
       <c r="C3798" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3798" t="n">
@@ -80203,7 +80203,7 @@
       </c>
       <c r="C3799" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3799" t="n">
@@ -80224,7 +80224,7 @@
       </c>
       <c r="C3800" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3800" t="n">
@@ -80245,7 +80245,7 @@
       </c>
       <c r="C3801" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3801" t="n">
@@ -80266,7 +80266,7 @@
       </c>
       <c r="C3802" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3802" t="n">
@@ -80287,7 +80287,7 @@
       </c>
       <c r="C3803" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3803" t="n">
@@ -80308,7 +80308,7 @@
       </c>
       <c r="C3804" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3804" t="n">
@@ -80329,7 +80329,7 @@
       </c>
       <c r="C3805" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3805" t="n">
@@ -80350,7 +80350,7 @@
       </c>
       <c r="C3806" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3806" t="n">
@@ -80371,7 +80371,7 @@
       </c>
       <c r="C3807" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3807" t="n">
@@ -80392,7 +80392,7 @@
       </c>
       <c r="C3808" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3808" t="n">
@@ -80413,7 +80413,7 @@
       </c>
       <c r="C3809" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3809" t="n">
@@ -80434,7 +80434,7 @@
       </c>
       <c r="C3810" t="inlineStr">
         <is>
-          <t>Taiwan, China</t>
+          <t>Taiwan, Province of China</t>
         </is>
       </c>
       <c r="D3810" t="n">
@@ -80455,7 +80455,7 @@
       </c>
       <c r="C3811" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3811" t="n">
@@ -80476,7 +80476,7 @@
       </c>
       <c r="C3812" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3812" t="n">
@@ -80497,7 +80497,7 @@
       </c>
       <c r="C3813" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3813" t="n">
@@ -80518,7 +80518,7 @@
       </c>
       <c r="C3814" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3814" t="n">
@@ -80539,7 +80539,7 @@
       </c>
       <c r="C3815" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3815" t="n">
@@ -80560,7 +80560,7 @@
       </c>
       <c r="C3816" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3816" t="n">
@@ -80581,7 +80581,7 @@
       </c>
       <c r="C3817" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3817" t="n">
@@ -80602,7 +80602,7 @@
       </c>
       <c r="C3818" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3818" t="n">
@@ -80623,7 +80623,7 @@
       </c>
       <c r="C3819" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3819" t="n">
@@ -80644,7 +80644,7 @@
       </c>
       <c r="C3820" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3820" t="n">
@@ -80665,7 +80665,7 @@
       </c>
       <c r="C3821" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3821" t="n">
@@ -80686,7 +80686,7 @@
       </c>
       <c r="C3822" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3822" t="n">
@@ -80707,7 +80707,7 @@
       </c>
       <c r="C3823" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3823" t="n">
@@ -80728,7 +80728,7 @@
       </c>
       <c r="C3824" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3824" t="n">
@@ -80749,7 +80749,7 @@
       </c>
       <c r="C3825" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3825" t="n">
@@ -80770,7 +80770,7 @@
       </c>
       <c r="C3826" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3826" t="n">
@@ -80791,7 +80791,7 @@
       </c>
       <c r="C3827" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3827" t="n">
@@ -80812,7 +80812,7 @@
       </c>
       <c r="C3828" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3828" t="n">
@@ -80833,7 +80833,7 @@
       </c>
       <c r="C3829" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3829" t="n">
@@ -80854,7 +80854,7 @@
       </c>
       <c r="C3830" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3830" t="n">
@@ -80875,7 +80875,7 @@
       </c>
       <c r="C3831" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3831" t="n">
@@ -80896,7 +80896,7 @@
       </c>
       <c r="C3832" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3832" t="n">
@@ -80917,7 +80917,7 @@
       </c>
       <c r="C3833" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3833" t="n">
@@ -80938,7 +80938,7 @@
       </c>
       <c r="C3834" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3834" t="n">
@@ -80959,7 +80959,7 @@
       </c>
       <c r="C3835" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3835" t="n">
@@ -80980,7 +80980,7 @@
       </c>
       <c r="C3836" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D3836" t="n">
@@ -83668,7 +83668,7 @@
       </c>
       <c r="C3964" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3964" t="n">
@@ -83689,7 +83689,7 @@
       </c>
       <c r="C3965" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3965" t="n">
@@ -83710,7 +83710,7 @@
       </c>
       <c r="C3966" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3966" t="n">
@@ -83731,7 +83731,7 @@
       </c>
       <c r="C3967" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3967" t="n">
@@ -83752,7 +83752,7 @@
       </c>
       <c r="C3968" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3968" t="n">
@@ -83773,7 +83773,7 @@
       </c>
       <c r="C3969" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3969" t="n">
@@ -83794,7 +83794,7 @@
       </c>
       <c r="C3970" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3970" t="n">
@@ -83815,7 +83815,7 @@
       </c>
       <c r="C3971" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3971" t="n">
@@ -83836,7 +83836,7 @@
       </c>
       <c r="C3972" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3972" t="n">
@@ -83857,7 +83857,7 @@
       </c>
       <c r="C3973" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3973" t="n">
@@ -83878,7 +83878,7 @@
       </c>
       <c r="C3974" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3974" t="n">
@@ -83899,7 +83899,7 @@
       </c>
       <c r="C3975" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D3975" t="n">
@@ -83920,7 +83920,7 @@
       </c>
       <c r="C3976" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3976" t="n">
@@ -83941,7 +83941,7 @@
       </c>
       <c r="C3977" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3977" t="n">
@@ -83962,7 +83962,7 @@
       </c>
       <c r="C3978" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3978" t="n">
@@ -83983,7 +83983,7 @@
       </c>
       <c r="C3979" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3979" t="n">
@@ -84004,7 +84004,7 @@
       </c>
       <c r="C3980" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3980" t="n">
@@ -84025,7 +84025,7 @@
       </c>
       <c r="C3981" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3981" t="n">
@@ -84046,7 +84046,7 @@
       </c>
       <c r="C3982" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3982" t="n">
@@ -84067,7 +84067,7 @@
       </c>
       <c r="C3983" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3983" t="n">
@@ -84088,7 +84088,7 @@
       </c>
       <c r="C3984" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3984" t="n">
@@ -84109,7 +84109,7 @@
       </c>
       <c r="C3985" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3985" t="n">
@@ -84130,7 +84130,7 @@
       </c>
       <c r="C3986" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3986" t="n">
@@ -84151,7 +84151,7 @@
       </c>
       <c r="C3987" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3987" t="n">
@@ -84172,7 +84172,7 @@
       </c>
       <c r="C3988" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3988" t="n">
@@ -84193,7 +84193,7 @@
       </c>
       <c r="C3989" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3989" t="n">
@@ -84214,7 +84214,7 @@
       </c>
       <c r="C3990" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3990" t="n">
@@ -84235,7 +84235,7 @@
       </c>
       <c r="C3991" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3991" t="n">
@@ -84256,7 +84256,7 @@
       </c>
       <c r="C3992" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3992" t="n">
@@ -84277,7 +84277,7 @@
       </c>
       <c r="C3993" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3993" t="n">
@@ -84298,7 +84298,7 @@
       </c>
       <c r="C3994" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3994" t="n">
@@ -84319,7 +84319,7 @@
       </c>
       <c r="C3995" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3995" t="n">
@@ -84340,7 +84340,7 @@
       </c>
       <c r="C3996" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3996" t="n">
@@ -84361,7 +84361,7 @@
       </c>
       <c r="C3997" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3997" t="n">
@@ -84382,7 +84382,7 @@
       </c>
       <c r="C3998" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3998" t="n">
@@ -84403,7 +84403,7 @@
       </c>
       <c r="C3999" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D3999" t="n">
@@ -84424,7 +84424,7 @@
       </c>
       <c r="C4000" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D4000" t="n">
@@ -84445,7 +84445,7 @@
       </c>
       <c r="C4001" t="inlineStr">
         <is>
-          <t>Venezuela, RB</t>
+          <t>Venezuela, Bolivarian Republic of</t>
         </is>
       </c>
       <c r="D4001" t="n">
@@ -84466,7 +84466,7 @@
       </c>
       <c r="C4002" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4002" t="n">
@@ -84487,7 +84487,7 @@
       </c>
       <c r="C4003" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4003" t="n">
@@ -84508,7 +84508,7 @@
       </c>
       <c r="C4004" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4004" t="n">
@@ -84529,7 +84529,7 @@
       </c>
       <c r="C4005" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4005" t="n">
@@ -84550,7 +84550,7 @@
       </c>
       <c r="C4006" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4006" t="n">
@@ -84571,7 +84571,7 @@
       </c>
       <c r="C4007" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4007" t="n">
@@ -84592,7 +84592,7 @@
       </c>
       <c r="C4008" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4008" t="n">
@@ -84613,7 +84613,7 @@
       </c>
       <c r="C4009" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4009" t="n">
@@ -84634,7 +84634,7 @@
       </c>
       <c r="C4010" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4010" t="n">
@@ -84655,7 +84655,7 @@
       </c>
       <c r="C4011" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4011" t="n">
@@ -84676,7 +84676,7 @@
       </c>
       <c r="C4012" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4012" t="n">
@@ -84697,7 +84697,7 @@
       </c>
       <c r="C4013" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4013" t="n">
@@ -84718,7 +84718,7 @@
       </c>
       <c r="C4014" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4014" t="n">
@@ -84739,7 +84739,7 @@
       </c>
       <c r="C4015" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4015" t="n">
@@ -84760,7 +84760,7 @@
       </c>
       <c r="C4016" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4016" t="n">
@@ -84781,7 +84781,7 @@
       </c>
       <c r="C4017" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4017" t="n">
@@ -84802,7 +84802,7 @@
       </c>
       <c r="C4018" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4018" t="n">
@@ -84823,7 +84823,7 @@
       </c>
       <c r="C4019" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4019" t="n">
@@ -84844,7 +84844,7 @@
       </c>
       <c r="C4020" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4020" t="n">
@@ -84865,7 +84865,7 @@
       </c>
       <c r="C4021" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4021" t="n">
@@ -84886,7 +84886,7 @@
       </c>
       <c r="C4022" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4022" t="n">
@@ -84907,7 +84907,7 @@
       </c>
       <c r="C4023" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4023" t="n">
@@ -84928,7 +84928,7 @@
       </c>
       <c r="C4024" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4024" t="n">
@@ -84949,7 +84949,7 @@
       </c>
       <c r="C4025" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4025" t="n">
@@ -84970,7 +84970,7 @@
       </c>
       <c r="C4026" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D4026" t="n">
@@ -85621,7 +85621,7 @@
       </c>
       <c r="C4057" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4057" t="n">
@@ -85642,7 +85642,7 @@
       </c>
       <c r="C4058" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4058" t="n">
@@ -85663,7 +85663,7 @@
       </c>
       <c r="C4059" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4059" t="n">
@@ -85684,7 +85684,7 @@
       </c>
       <c r="C4060" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4060" t="n">
@@ -85705,7 +85705,7 @@
       </c>
       <c r="C4061" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4061" t="n">
@@ -85726,7 +85726,7 @@
       </c>
       <c r="C4062" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4062" t="n">
@@ -85747,7 +85747,7 @@
       </c>
       <c r="C4063" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4063" t="n">
@@ -85768,7 +85768,7 @@
       </c>
       <c r="C4064" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4064" t="n">
@@ -85789,7 +85789,7 @@
       </c>
       <c r="C4065" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4065" t="n">
@@ -85810,7 +85810,7 @@
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4066" t="n">
@@ -85831,7 +85831,7 @@
       </c>
       <c r="C4067" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4067" t="n">
@@ -85852,7 +85852,7 @@
       </c>
       <c r="C4068" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4068" t="n">
@@ -85873,7 +85873,7 @@
       </c>
       <c r="C4069" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4069" t="n">
@@ -85894,7 +85894,7 @@
       </c>
       <c r="C4070" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4070" t="n">
@@ -85915,7 +85915,7 @@
       </c>
       <c r="C4071" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4071" t="n">
@@ -85936,7 +85936,7 @@
       </c>
       <c r="C4072" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4072" t="n">
@@ -85957,7 +85957,7 @@
       </c>
       <c r="C4073" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4073" t="n">
@@ -85978,7 +85978,7 @@
       </c>
       <c r="C4074" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4074" t="n">
@@ -85999,7 +85999,7 @@
       </c>
       <c r="C4075" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4075" t="n">
@@ -86020,7 +86020,7 @@
       </c>
       <c r="C4076" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4076" t="n">
@@ -86041,7 +86041,7 @@
       </c>
       <c r="C4077" t="inlineStr">
         <is>
-          <t>Yemen, Rep.</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="D4077" t="n">
